--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -371,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -429,7 +429,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1079,7 +1079,7 @@
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33.75">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33.75">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
